--- a/biology/Botanique/Magnolia_guatemalensis/Magnolia_guatemalensis.xlsx
+++ b/biology/Botanique/Magnolia_guatemalensis/Magnolia_guatemalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia guatemalensis est une espèce d'arbres de la famille des Magnoliacées vivant en Amérique centrale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbre moyen au feuillage persistant pouvant atteindre 22 m avec un port pyramidale[2]. Les feuilles simples, de formes elliptiques, mesurent entre 12 et 20 cm. Coriaces, elles peuvent être glabres ou pubescentes sur la face supérieure et pubescentes sur la face inférieure particulièrement sur la nervure centrale. Leur marge est entière. Le sommet du limbe est acuminé alors que la base est cunéiforme à obtuse. Le pétiole mesure entre 2,5 et 4 cm[2]. Les fleurs blanches hermaphrodites actinomorphes. Le périanthe est composé de neuf tépales oblongs[2]. Les trois tépales externes sépaloïdes mesurent entre 2,5 cm et 7,6 cm et les six autres tépales mesurent 7,6 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre moyen au feuillage persistant pouvant atteindre 22 m avec un port pyramidale. Les feuilles simples, de formes elliptiques, mesurent entre 12 et 20 cm. Coriaces, elles peuvent être glabres ou pubescentes sur la face supérieure et pubescentes sur la face inférieure particulièrement sur la nervure centrale. Leur marge est entière. Le sommet du limbe est acuminé alors que la base est cunéiforme à obtuse. Le pétiole mesure entre 2,5 et 4 cm. Les fleurs blanches hermaphrodites actinomorphes. Le périanthe est composé de neuf tépales oblongs. Les trois tépales externes sépaloïdes mesurent entre 2,5 cm et 7,6 cm et les six autres tépales mesurent 7,6 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce type est présente au Guatemala depuis les zones marécageuses jusqu'au forêts sur les contreforts entre 1 350 et 1 950 m[2]. La sous espèce M. g. ssp. hondurensis  étant présente quant à elle au Salvador et au Honduras[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type est présente au Guatemala depuis les zones marécageuses jusqu'au forêts sur les contreforts entre 1 350 et 1 950 m. La sous espèce M. g. ssp. hondurensis  étant présente quant à elle au Salvador et au Honduras.
 </t>
         </is>
       </c>
@@ -573,15 +589,17 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 décembre 2013)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 décembre 2013) :
 Magnolia guatemalensis Donn.Sm. (1909)
 sous-espèce Magnolia guatemalensis subsp. guatemalensis
 sous-espèce Magnolia guatemalensis subsp. hondurensis (A.M.Molina) Vazquez (1994)
-Selon The Plant List            (31 décembre 2013)[1] :
+Selon The Plant List            (31 décembre 2013) :
 sous-espèce Magnolia guatemalensis subsp. hondurensis (A.M.Molina) Vazquez
-Selon Tropicos                                           (31 décembre 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Magnolia guatemalensis subsp. guatemalensis
 sous-espèce Magnolia guatemalensis subsp. hondurensis (Ant. Molina) A. Vázquez</t>
         </is>
